--- a/medicine/Pharmacie/Coumarinique/Coumarinique.xlsx
+++ b/medicine/Pharmacie/Coumarinique/Coumarinique.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F2"/>
+  <dimension ref="A1:H2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Les coumariniques sont une famille de médicaments dérivée de synthèse de la coumarine, composé aromatique naturel. On utilise 2 molécules :  l'acénocoumarol (Sintrom ®) et la warfarine ou coumaphène (Coumadine ®).
 Ils ont des propriétés anticoagulantes, utilisées en thérapeutique (pour prévenir la formation ou empêcher l'extension de caillots sanguins) ou comme rodenticide pour la lutte contre les rongeurs nuisibles, dans la "mort aux rats". Ils sont donc également classés comme pesticide (ou produit phytosanitaire ou produit phytopharmaceutique).
